--- a/data_output/prism_passive/all_passive_out_strain_msc_SOL_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_msc_SOL_trial_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>5.8366712825715368</v>
+        <v>5.8366712695784972</v>
       </c>
       <c r="C2">
-        <v>8.0250035985682953</v>
+        <v>8.0250036004228829</v>
       </c>
       <c r="D2">
-        <v>-5.3248710436941127E-3</v>
+        <v>-5.3247866690777921E-3</v>
       </c>
       <c r="E2">
-        <v>9.3207025951546072</v>
+        <v>9.3207025624755158</v>
       </c>
       <c r="F2">
-        <v>-15.400901945294819</v>
+        <v>-15.400901952055063</v>
       </c>
       <c r="G2">
-        <v>12.081430481277661</v>
+        <v>12.081430470446319</v>
       </c>
       <c r="H2">
-        <v>8.9799796312503055</v>
+        <v>8.9799796055144743</v>
       </c>
       <c r="I2">
-        <v>8.9946324698815125</v>
+        <v>8.9946324660886319</v>
       </c>
       <c r="J2">
-        <v>13.756819819794226</v>
+        <v>13.756819807277981</v>
       </c>
       <c r="K2">
-        <v>9.920279173232684</v>
+        <v>9.9202791450342804</v>
       </c>
       <c r="L2">
-        <v>17.81560083756505</v>
+        <v>17.815600830441454</v>
       </c>
       <c r="M2">
-        <v>6.4982421516556181</v>
+        <v>6.4982421365469429</v>
       </c>
       <c r="N2">
-        <v>12.93679125329257</v>
+        <v>12.936791224372385</v>
       </c>
       <c r="O2">
-        <v>10.466269142469583</v>
+        <v>10.466269130483063</v>
       </c>
       <c r="P2">
-        <v>5.8054055283114536</v>
+        <v>5.8054055337591528</v>
       </c>
       <c r="Q2">
-        <v>9.8533491451815145</v>
+        <v>9.8533491380441642</v>
       </c>
       <c r="R2">
-        <v>5.749002681980631</v>
+        <v>5.7490026772609859</v>
       </c>
       <c r="S2">
-        <v>8.6549028988026411</v>
+        <v>8.6549028929256622</v>
       </c>
       <c r="T2">
-        <v>9.8131025560263545</v>
+        <v>9.8131025441648436</v>
       </c>
       <c r="U2">
-        <v>17.664530370958349</v>
+        <v>17.664530348706016</v>
       </c>
       <c r="V2">
-        <v>7.4938428715647527</v>
+        <v>7.4938428525660923</v>
       </c>
       <c r="W2">
-        <v>8.3466402362399617</v>
+        <v>8.3466402270005311</v>
       </c>
       <c r="X2">
-        <v>12.4326179714167</v>
+        <v>12.432617971657365</v>
       </c>
       <c r="Y2">
-        <v>11.223158585001903</v>
+        <v>11.223158576369432</v>
       </c>
       <c r="Z2">
-        <v>-0.57014179997215209</v>
+        <v>-0.57014181075018533</v>
       </c>
       <c r="AA2">
-        <v>17.367936804985142</v>
+        <v>17.367936798511334</v>
       </c>
       <c r="AB2">
-        <v>10.036963715394212</v>
+        <v>10.036963713148989</v>
       </c>
       <c r="AC2">
-        <v>12.637465780207027</v>
+        <v>12.637465762419678</v>
       </c>
       <c r="AD2">
-        <v>8.2495496117299147</v>
+        <v>8.2495496038894576</v>
       </c>
       <c r="AE2">
-        <v>-0.37112555982822071</v>
+        <v>-0.37112553896917078</v>
       </c>
       <c r="AF2">
-        <v>9.418682541374606</v>
+        <v>9.4186825413503463</v>
       </c>
       <c r="AG2">
-        <v>13.057855886089637</v>
+        <v>13.057855858207306</v>
       </c>
       <c r="AH2">
-        <v>7.2848903880615712</v>
+        <v>7.2848903814508068</v>
       </c>
       <c r="AI2">
-        <v>20.001258161442468</v>
+        <v>20.001258149750569</v>
       </c>
       <c r="AJ2">
-        <v>8.491186486294211</v>
+        <v>8.4911864658154954</v>
       </c>
       <c r="AK2">
-        <v>14.086685284101058</v>
+        <v>14.08668527064483</v>
       </c>
       <c r="AL2">
-        <v>11.749630005489548</v>
+        <v>11.749630010706905</v>
       </c>
       <c r="AM2">
-        <v>10.365301400197932</v>
+        <v>10.365301378440057</v>
       </c>
       <c r="AN2">
-        <v>10.663064017731475</v>
+        <v>10.663063991880248</v>
       </c>
       <c r="AO2">
-        <v>9.8448948044390843</v>
+        <v>9.8448948071757574</v>
       </c>
       <c r="AP2">
-        <v>8.7357954883250688</v>
+        <v>8.7357954832116604</v>
       </c>
       <c r="AQ2">
-        <v>8.9113132493017186</v>
+        <v>8.9113132373882955</v>
       </c>
       <c r="AR2">
-        <v>10.191857772132153</v>
+        <v>10.191857773105202</v>
       </c>
       <c r="AS2">
-        <v>12.11847041223985</v>
+        <v>12.118470415279415</v>
       </c>
       <c r="AT2">
-        <v>12.763470939055937</v>
+        <v>12.763470927151538</v>
       </c>
       <c r="AU2">
-        <v>9.2334735301604507</v>
+        <v>9.2334735219975226</v>
       </c>
       <c r="AV2">
-        <v>6.2192191356026063</v>
+        <v>6.2192191308808038</v>
       </c>
       <c r="AW2">
-        <v>10.407321774375733</v>
+        <v>10.407321769464243</v>
       </c>
       <c r="AX2">
-        <v>12.365246733740138</v>
+        <v>12.365246765720448</v>
       </c>
       <c r="AY2">
-        <v>14.097082621856035</v>
+        <v>14.097082620100377</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>8.0116437552806214</v>
+        <v>8.0116437613089886</v>
       </c>
       <c r="C3">
-        <v>10.699851056556781</v>
+        <v>10.699851062306671</v>
       </c>
       <c r="D3">
-        <v>16.423085477512526</v>
+        <v>16.423085468980457</v>
       </c>
       <c r="E3">
-        <v>7.6904318078611702</v>
+        <v>7.6904318039960913</v>
       </c>
       <c r="F3">
-        <v>4.9710027128103658</v>
+        <v>4.9710026901156663</v>
       </c>
       <c r="G3">
-        <v>10.783107745776382</v>
+        <v>10.783107736576005</v>
       </c>
       <c r="H3">
-        <v>13.490900173783768</v>
+        <v>13.490900154954662</v>
       </c>
       <c r="I3">
-        <v>8.704075768999898</v>
+        <v>8.7040757640053776</v>
       </c>
       <c r="J3">
-        <v>13.694068815188057</v>
+        <v>13.694068812081891</v>
       </c>
       <c r="K3">
-        <v>13.157924966599207</v>
+        <v>13.157924950644142</v>
       </c>
       <c r="L3">
-        <v>27.072190448580113</v>
+        <v>27.072190427149877</v>
       </c>
       <c r="M3">
-        <v>6.8369368528919576</v>
+        <v>6.8368759708763163</v>
       </c>
       <c r="N3">
-        <v>9.967180333321096</v>
+        <v>9.9671803188293833</v>
       </c>
       <c r="O3">
-        <v>6.0993965276501605</v>
+        <v>6.0993965164398682</v>
       </c>
       <c r="P3">
-        <v>10.728003773644341</v>
+        <v>10.728003772677093</v>
       </c>
       <c r="Q3">
-        <v>5.9281864235662614</v>
+        <v>5.9281864109548543</v>
       </c>
       <c r="R3">
-        <v>8.0333541813138627</v>
+        <v>8.0333541712152456</v>
       </c>
       <c r="S3">
-        <v>7.4678042408134857</v>
+        <v>7.4678042350527551</v>
       </c>
       <c r="T3">
-        <v>9.7981586120057731</v>
+        <v>9.7981585943618121</v>
       </c>
       <c r="U3">
-        <v>10.215870031696712</v>
+        <v>10.215870017875918</v>
       </c>
       <c r="V3">
-        <v>15.333123487029917</v>
+        <v>15.333123479633079</v>
       </c>
       <c r="W3">
-        <v>9.6149433495945438</v>
+        <v>9.6149433161986728</v>
       </c>
       <c r="X3">
-        <v>8.3466521270671752</v>
+        <v>8.3466521035662105</v>
       </c>
       <c r="Y3">
-        <v>7.9512090969752185</v>
+        <v>7.9512090894450784</v>
       </c>
       <c r="Z3">
-        <v>7.3410271779323466</v>
+        <v>7.3410271765117416</v>
       </c>
       <c r="AA3">
-        <v>14.257975374735803</v>
+        <v>14.257975373749106</v>
       </c>
       <c r="AB3">
-        <v>10.093797760923078</v>
+        <v>10.093797758816285</v>
       </c>
       <c r="AC3">
-        <v>18.003010415077288</v>
+        <v>18.00301039283147</v>
       </c>
       <c r="AD3">
-        <v>11.908717353152234</v>
+        <v>11.908717307768038</v>
       </c>
       <c r="AE3">
-        <v>10.43189468006825</v>
+        <v>10.431894667518648</v>
       </c>
       <c r="AF3">
-        <v>12.562705594682344</v>
+        <v>12.562705591779688</v>
       </c>
       <c r="AG3">
-        <v>17.473713195528994</v>
+        <v>17.473713061962719</v>
       </c>
       <c r="AH3">
-        <v>12.519192629666879</v>
+        <v>12.519192642399119</v>
       </c>
       <c r="AI3">
-        <v>14.782235871568524</v>
+        <v>14.782235830955237</v>
       </c>
       <c r="AJ3">
-        <v>18.245002512599338</v>
+        <v>18.2450025089042</v>
       </c>
       <c r="AK3">
-        <v>28.707894758661933</v>
+        <v>28.707894752712232</v>
       </c>
       <c r="AL3">
-        <v>12.034658255852609</v>
+        <v>12.034658248677307</v>
       </c>
       <c r="AM3">
-        <v>8.8876378876524686</v>
+        <v>8.8876378757317909</v>
       </c>
       <c r="AN3">
-        <v>7.2841610431940387</v>
+        <v>7.2841610251073954</v>
       </c>
       <c r="AO3">
-        <v>12.642930680012391</v>
+        <v>12.642930673106056</v>
       </c>
       <c r="AP3">
-        <v>8.3263634254019774</v>
+        <v>8.3263634148856092</v>
       </c>
       <c r="AQ3">
-        <v>8.7172473538163757</v>
+        <v>8.7172473545577098</v>
       </c>
       <c r="AR3">
-        <v>11.18459842962295</v>
+        <v>11.184598428859694</v>
       </c>
       <c r="AS3">
-        <v>10.090423518872942</v>
+        <v>10.090423506524125</v>
       </c>
       <c r="AT3">
-        <v>9.2107471640784873</v>
+        <v>9.2107471697363543</v>
       </c>
       <c r="AU3">
-        <v>12.05539491925057</v>
+        <v>12.055394907574721</v>
       </c>
       <c r="AV3">
-        <v>13.395675604826621</v>
+        <v>13.39567558616811</v>
       </c>
       <c r="AW3">
-        <v>11.423602056675167</v>
+        <v>11.423602024469037</v>
       </c>
       <c r="AX3">
-        <v>10.988636801752051</v>
+        <v>10.988636783775146</v>
       </c>
       <c r="AY3">
-        <v>9.7441742216938714</v>
+        <v>9.7441742109600966</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_strain_msc_SOL_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_msc_SOL_trial_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,62 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>5.8366712695784972</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>8.0250036004228829</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>-5.3247866690777921E-3</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>9.3207025624755158</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>-15.400901952055063</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>12.081430470446319</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>8.9799796055144743</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>8.9946324660886319</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>13.756819807277981</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>9.9202791450342804</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>17.815600830441454</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>6.4982421365469429</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>12.936791224372385</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>10.466269130483063</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>5.8054055337591528</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>9.8533491380441642</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>5.7490026772609859</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>8.6549028929256622</v>
+        <v>8.654916274516955</v>
       </c>
       <c r="T2">
         <v>9.8131025441648436</v>
@@ -576,147 +465,144 @@
         <v>7.4938428525660923</v>
       </c>
       <c r="W2">
-        <v>8.3466402270005311</v>
+        <v>8.3466529665270279</v>
       </c>
       <c r="X2">
-        <v>12.432617971657365</v>
+        <v>12.432602217743804</v>
       </c>
       <c r="Y2">
         <v>11.223158576369432</v>
       </c>
       <c r="Z2">
-        <v>-0.57014181075018533</v>
+        <v>-0.57015648720054057</v>
       </c>
       <c r="AA2">
-        <v>17.367936798511334</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>10.036963713148989</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>12.637465762419678</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>8.2495496038894576</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>-0.37112553896917078</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>9.4186825413503463</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>13.057855858207306</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>7.2848903814508068</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>20.001258149750569</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>8.4911864658154954</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>14.08668527064483</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>11.749630010706905</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>10.365301378440057</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>10.663063991880248</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>9.8448948071757574</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>8.7357954832116604</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>8.9113132373882955</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>10.191857773105202</v>
+        <v>10.191844058434269</v>
       </c>
       <c r="AS2">
         <v>12.118470415279415</v>
       </c>
       <c r="AT2">
-        <v>12.763470927151538</v>
+        <v>12.763488709987369</v>
       </c>
       <c r="AU2">
-        <v>9.2334735219975226</v>
+        <v>9.2334601621180408</v>
       </c>
       <c r="AV2">
-        <v>6.2192191308808038</v>
+        <v>6.2192317705309401</v>
       </c>
       <c r="AW2">
-        <v>10.407321769464243</v>
+        <v>10.407306399349297</v>
       </c>
       <c r="AX2">
-        <v>12.365246765720448</v>
+        <v>12.365230533460531</v>
       </c>
       <c r="AY2">
-        <v>14.097082620100377</v>
+        <v>14.097065042469509</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>8.0116437613089886</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>10.699851062306671</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>16.423085468980457</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>7.6904318039960913</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>4.9710026901156663</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>10.783107736576005</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>13.490900154954662</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>8.7040757640053776</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>13.694068812081891</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>13.157924950644142</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>27.072190427149877</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>6.8368759708763163</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>9.9671803188293833</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>6.0993965164398682</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>10.728003772677093</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>5.9281864109548543</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>8.0333541712152456</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>7.4678042350527551</v>
@@ -728,94 +614,94 @@
         <v>10.215870017875918</v>
       </c>
       <c r="V3">
-        <v>15.333123479633079</v>
+        <v>15.333108847736398</v>
       </c>
       <c r="W3">
-        <v>9.6149433161986728</v>
+        <v>9.6149282155745688</v>
       </c>
       <c r="X3">
-        <v>8.3466521035662105</v>
+        <v>8.3466666554063362</v>
       </c>
       <c r="Y3">
-        <v>7.9512090894450784</v>
+        <v>21.505852446001569</v>
       </c>
       <c r="Z3">
-        <v>7.3410271765117416</v>
+        <v>9.807718916538203</v>
       </c>
       <c r="AA3">
-        <v>14.257975373749106</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>10.093797758816285</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>18.00301039283147</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>11.908717307768038</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>10.431894667518648</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>12.562705591779688</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>17.473713061962719</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>12.519192642399119</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>14.782235830955237</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>18.2450025089042</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>28.707894752712232</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>12.034658248677307</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>8.8876378757317909</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>7.2841610251073954</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>12.642930673106056</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>8.3263634148856092</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>8.7172473545577098</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>11.184598428859694</v>
+        <v>11.184612246915776</v>
       </c>
       <c r="AS3">
-        <v>10.090423506524125</v>
+        <v>10.090409016860013</v>
       </c>
       <c r="AT3">
         <v>9.2107471697363543</v>
       </c>
       <c r="AU3">
-        <v>12.055394907574721</v>
+        <v>12.055381139852489</v>
       </c>
       <c r="AV3">
-        <v>13.39567558616811</v>
+        <v>13.395659740862618</v>
       </c>
       <c r="AW3">
         <v>11.423602024469037</v>
       </c>
       <c r="AX3">
-        <v>10.988636783775146</v>
+        <v>13.052280197461361</v>
       </c>
       <c r="AY3">
-        <v>9.7441742109600966</v>
+        <v>33.183132076152887</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_strain_msc_SOL_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_msc_SOL_trial_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>5.8366848793855306</v>
+        <v>10.466253638017726</v>
       </c>
       <c r="C2">
-        <v>10.870114282893365</v>
+        <v>5.7490026772609859</v>
       </c>
       <c r="D2">
-        <v>-5.341811288658376E-3</v>
+        <v>10.663079852511585</v>
       </c>
       <c r="E2">
-        <v>9.3207173012724169</v>
+        <v>8.9113260483376351</v>
       </c>
       <c r="F2">
         <v>-15.400901945294819</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>8.0116437552806214</v>
+        <v>6.0993965164398682</v>
       </c>
       <c r="C3">
-        <v>14.511605458075422</v>
+        <v>8.0333669674263248</v>
       </c>
       <c r="D3">
-        <v>16.423106065154865</v>
+        <v>7.2841762501876959</v>
       </c>
       <c r="E3">
-        <v>7.6904169523548598</v>
+        <v>8.686184479998504</v>
       </c>
       <c r="F3">
         <v>4.9710027128103658</v>

--- a/data_output/prism_passive/all_passive_out_strain_msc_SOL_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_msc_SOL_trial_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>5.8366848793855306</v>
+        <v>4.9914799125796581</v>
       </c>
       <c r="C2">
-        <v>10.870114282893365</v>
+        <v>10.466253638017726</v>
       </c>
       <c r="D2">
-        <v>-5.341811288658376E-3</v>
+        <v>12.167178286248378</v>
       </c>
       <c r="E2">
-        <v>9.3207173012724169</v>
+        <v>10.663079852511585</v>
       </c>
       <c r="F2">
         <v>-15.400901945294819</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>8.0116437552806214</v>
+        <v>3.8442887910512433</v>
       </c>
       <c r="C3">
-        <v>14.511605458075422</v>
+        <v>6.0993965164398682</v>
       </c>
       <c r="D3">
-        <v>16.423106065154865</v>
+        <v>15.890322102211959</v>
       </c>
       <c r="E3">
-        <v>7.6904169523548598</v>
+        <v>7.2841762501876959</v>
       </c>
       <c r="F3">
         <v>4.9710027128103658</v>

--- a/data_output/prism_passive/all_passive_out_strain_msc_SOL_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_msc_SOL_trial_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>5.8366848663924902</v>
+      </c>
+      <c r="C2">
+        <v>10.870114284796797</v>
+      </c>
+      <c r="D2">
+        <v>-5.3417269140563503E-3</v>
+      </c>
+      <c r="E2">
+        <v>9.3207172685933219</v>
+      </c>
+      <c r="F2">
+        <v>-15.400901952055063</v>
+      </c>
+      <c r="G2">
+        <v>12.081445713367236</v>
+      </c>
+      <c r="H2">
+        <v>8.9799796055144743</v>
+      </c>
+      <c r="I2">
+        <v>8.9946193326032535</v>
+      </c>
+      <c r="J2">
+        <v>13.756837766743063</v>
+      </c>
+      <c r="K2">
+        <v>21.060877499772758</v>
+      </c>
+      <c r="L2">
+        <v>17.815620715379605</v>
+      </c>
+      <c r="M2">
+        <v>6.4982421365469429</v>
+      </c>
+      <c r="N2">
         <v>4.9914799125796581</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>10.466253638017726</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>5.8054055337591528</v>
+      </c>
+      <c r="Q2">
+        <v>20.034555616991554</v>
+      </c>
+      <c r="R2">
+        <v>5.7490026772609859</v>
+      </c>
+      <c r="S2">
+        <v>8.654916274516955</v>
+      </c>
+      <c r="T2">
+        <v>9.8131025441648436</v>
+      </c>
+      <c r="U2">
+        <v>17.664530348706016</v>
+      </c>
+      <c r="V2">
+        <v>7.4938428525660923</v>
+      </c>
+      <c r="W2">
+        <v>8.3466529665270279</v>
+      </c>
+      <c r="X2">
+        <v>12.432602217743804</v>
+      </c>
+      <c r="Y2">
+        <v>11.223158576369432</v>
+      </c>
+      <c r="Z2">
+        <v>-0.57015648720054057</v>
+      </c>
+      <c r="AA2">
+        <v>17.367952232701604</v>
+      </c>
+      <c r="AB2">
+        <v>5.9532000574461108</v>
+      </c>
+      <c r="AC2">
+        <v>12.637446795066785</v>
+      </c>
+      <c r="AD2">
+        <v>8.2495351841521387</v>
+      </c>
+      <c r="AE2">
+        <v>-0.37112553896917078</v>
+      </c>
+      <c r="AF2">
+        <v>9.4186679141717118</v>
+      </c>
+      <c r="AG2">
+        <v>13.057873893650493</v>
+      </c>
+      <c r="AH2">
+        <v>7.2848774679622599</v>
+      </c>
+      <c r="AI2">
+        <v>20.001258149750569</v>
+      </c>
+      <c r="AJ2">
+        <v>9.3536766370863926</v>
+      </c>
+      <c r="AK2">
+        <v>14.08668527064483</v>
+      </c>
+      <c r="AL2">
+        <v>11.749615984129498</v>
+      </c>
+      <c r="AM2">
         <v>12.167178286248378</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>10.663079852511585</v>
       </c>
-      <c r="F2">
-        <v>-15.400901945294819</v>
-      </c>
-      <c r="G2">
-        <v>12.081445724198581</v>
-      </c>
-      <c r="H2">
-        <v>8.9799796312503055</v>
-      </c>
-      <c r="I2">
-        <v>8.9946193363961324</v>
-      </c>
-      <c r="J2">
-        <v>13.756837779259309</v>
-      </c>
-      <c r="K2">
-        <v>21.060877530829114</v>
-      </c>
-      <c r="L2">
-        <v>17.815620722503205</v>
-      </c>
-      <c r="M2">
-        <v>6.4982421516556181</v>
-      </c>
-      <c r="N2">
-        <v>4.9914799394652531</v>
-      </c>
-      <c r="O2">
-        <v>10.466253650004244</v>
-      </c>
-      <c r="P2">
-        <v>5.8054055283114536</v>
-      </c>
-      <c r="Q2">
-        <v>20.034555624790389</v>
-      </c>
-      <c r="R2">
-        <v>5.749002681980631</v>
-      </c>
-      <c r="S2">
-        <v>8.6549162803939339</v>
-      </c>
-      <c r="T2">
-        <v>9.8131025560263545</v>
-      </c>
-      <c r="U2">
-        <v>17.664530370958349</v>
-      </c>
-      <c r="V2">
-        <v>7.4938428715647527</v>
-      </c>
-      <c r="W2">
-        <v>8.3466529757664603</v>
-      </c>
-      <c r="X2">
-        <v>12.432602217503138</v>
-      </c>
-      <c r="Y2">
-        <v>11.223158585001903</v>
-      </c>
-      <c r="Z2">
-        <v>-0.57015647642250888</v>
-      </c>
-      <c r="AA2">
-        <v>17.367952239175413</v>
-      </c>
-      <c r="AB2">
-        <v>5.9532000596080081</v>
-      </c>
-      <c r="AC2">
-        <v>12.637446812854131</v>
-      </c>
-      <c r="AD2">
-        <v>8.2495351919925923</v>
-      </c>
-      <c r="AE2">
-        <v>-0.37112555982822071</v>
-      </c>
-      <c r="AF2">
-        <v>9.4186679141959697</v>
-      </c>
-      <c r="AG2">
-        <v>13.057873921532828</v>
-      </c>
-      <c r="AH2">
-        <v>7.2848774745730243</v>
-      </c>
-      <c r="AI2">
-        <v>20.001258161442468</v>
-      </c>
-      <c r="AJ2">
-        <v>9.3536766577279131</v>
-      </c>
-      <c r="AK2">
-        <v>14.086685284101058</v>
-      </c>
-      <c r="AL2">
-        <v>11.749615978912141</v>
-      </c>
-      <c r="AM2">
-        <v>12.167178308361484</v>
-      </c>
-      <c r="AN2">
-        <v>10.663079878362815</v>
-      </c>
       <c r="AO2">
-        <v>9.84488084014259</v>
+        <v>9.8448808428792614</v>
       </c>
       <c r="AP2">
-        <v>8.7357954883250688</v>
+        <v>8.7357954832116604</v>
       </c>
       <c r="AQ2">
-        <v>8.9113260602510582</v>
+        <v>8.9113260483376351</v>
       </c>
       <c r="AR2">
-        <v>10.191844057461219</v>
+        <v>10.191844058434269</v>
       </c>
       <c r="AS2">
-        <v>12.11847041223985</v>
+        <v>12.118470415279415</v>
       </c>
       <c r="AT2">
-        <v>12.763488721891768</v>
+        <v>12.763488709987369</v>
       </c>
       <c r="AU2">
-        <v>9.2334601702809689</v>
+        <v>9.2334601621180408</v>
       </c>
       <c r="AV2">
-        <v>6.2192317752527435</v>
+        <v>6.2192317705309401</v>
       </c>
       <c r="AW2">
-        <v>10.407306404260787</v>
+        <v>10.407306399349297</v>
       </c>
       <c r="AX2">
-        <v>12.365230501480227</v>
+        <v>12.365230533460531</v>
       </c>
       <c r="AY2">
-        <v>14.097065044225168</v>
+        <v>14.097065042469509</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -668,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>8.0116437613089886</v>
+      </c>
+      <c r="C3">
+        <v>14.511605464023299</v>
+      </c>
+      <c r="D3">
+        <v>16.423106056622792</v>
+      </c>
+      <c r="E3">
+        <v>7.6904169484897809</v>
+      </c>
+      <c r="F3">
+        <v>4.9710026901156663</v>
+      </c>
+      <c r="G3">
+        <v>10.783092522360407</v>
+      </c>
+      <c r="H3">
+        <v>13.490881525387339</v>
+      </c>
+      <c r="I3">
+        <v>8.7040631121851355</v>
+      </c>
+      <c r="J3">
+        <v>20.983574057353533</v>
+      </c>
+      <c r="K3">
+        <v>13.157924950644142</v>
+      </c>
+      <c r="L3">
+        <v>27.072190427149877</v>
+      </c>
+      <c r="M3">
+        <v>6.8368887136992464</v>
+      </c>
+      <c r="N3">
         <v>3.8442887910512433</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>6.0993965164398682</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>10.728003772677093</v>
+      </c>
+      <c r="Q3">
+        <v>5.9281748391490421</v>
+      </c>
+      <c r="R3">
+        <v>8.0333669674263248</v>
+      </c>
+      <c r="S3">
+        <v>7.4678042350527551</v>
+      </c>
+      <c r="T3">
+        <v>9.7981585943618121</v>
+      </c>
+      <c r="U3">
+        <v>10.215870017875918</v>
+      </c>
+      <c r="V3">
+        <v>15.333108847736398</v>
+      </c>
+      <c r="W3">
+        <v>9.6309107479445615</v>
+      </c>
+      <c r="X3">
+        <v>8.3466666554063362</v>
+      </c>
+      <c r="Y3">
+        <v>21.505852446001569</v>
+      </c>
+      <c r="Z3">
+        <v>9.807718916538203</v>
+      </c>
+      <c r="AA3">
+        <v>14.257961079800047</v>
+      </c>
+      <c r="AB3">
+        <v>10.317301798047248</v>
+      </c>
+      <c r="AC3">
+        <v>18.003030961870738</v>
+      </c>
+      <c r="AD3">
+        <v>11.90870128666738</v>
+      </c>
+      <c r="AE3">
+        <v>10.431878867057884</v>
+      </c>
+      <c r="AF3">
+        <v>12.562705591779688</v>
+      </c>
+      <c r="AG3">
+        <v>17.473713061962719</v>
+      </c>
+      <c r="AH3">
+        <v>12.594517662996887</v>
+      </c>
+      <c r="AI3">
+        <v>16.389516050181964</v>
+      </c>
+      <c r="AJ3">
+        <v>18.2450025089042</v>
+      </c>
+      <c r="AK3">
+        <v>28.707916941637311</v>
+      </c>
+      <c r="AL3">
+        <v>12.034658248677307</v>
+      </c>
+      <c r="AM3">
         <v>15.890322102211959</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>7.2841762501876959</v>
       </c>
-      <c r="F3">
-        <v>4.9710027128103658</v>
-      </c>
-      <c r="G3">
-        <v>10.783092531560785</v>
-      </c>
-      <c r="H3">
-        <v>13.490881544216437</v>
-      </c>
-      <c r="I3">
-        <v>8.7040631171796559</v>
-      </c>
-      <c r="J3">
-        <v>20.983574060658849</v>
-      </c>
-      <c r="K3">
-        <v>13.157924966599207</v>
-      </c>
-      <c r="L3">
-        <v>27.072190448580113</v>
-      </c>
-      <c r="M3">
-        <v>6.8369495957221496</v>
-      </c>
-      <c r="N3">
-        <v>3.8442888047360695</v>
-      </c>
-      <c r="O3">
-        <v>6.0993965276501605</v>
-      </c>
-      <c r="P3">
-        <v>10.728003773644341</v>
-      </c>
-      <c r="Q3">
-        <v>5.9281748517604465</v>
-      </c>
-      <c r="R3">
-        <v>8.0333669775249437</v>
-      </c>
-      <c r="S3">
-        <v>7.4678042408134857</v>
-      </c>
-      <c r="T3">
-        <v>9.7981586120057731</v>
-      </c>
-      <c r="U3">
-        <v>10.215870031696712</v>
-      </c>
-      <c r="V3">
-        <v>15.333108855133235</v>
-      </c>
-      <c r="W3">
-        <v>9.6309107751829135</v>
-      </c>
-      <c r="X3">
-        <v>8.3466666789073045</v>
-      </c>
-      <c r="Y3">
-        <v>21.505852454477214</v>
-      </c>
-      <c r="Z3">
-        <v>9.807718917991453</v>
-      </c>
-      <c r="AA3">
-        <v>14.257961080786746</v>
-      </c>
-      <c r="AB3">
-        <v>10.317301800158321</v>
-      </c>
-      <c r="AC3">
-        <v>18.003030984116563</v>
-      </c>
-      <c r="AD3">
-        <v>11.908701332051567</v>
-      </c>
-      <c r="AE3">
-        <v>10.431878879607485</v>
-      </c>
-      <c r="AF3">
-        <v>12.562705594682344</v>
-      </c>
-      <c r="AG3">
-        <v>17.473713195528994</v>
-      </c>
-      <c r="AH3">
-        <v>12.594517647925132</v>
-      </c>
-      <c r="AI3">
-        <v>16.389516091363951</v>
-      </c>
-      <c r="AJ3">
-        <v>18.245002512599338</v>
-      </c>
-      <c r="AK3">
-        <v>28.707916947587016</v>
-      </c>
-      <c r="AL3">
-        <v>12.034658255852609</v>
-      </c>
-      <c r="AM3">
-        <v>15.890322114899266</v>
-      </c>
-      <c r="AN3">
-        <v>7.2841762682743418</v>
-      </c>
       <c r="AO3">
-        <v>12.642945172802936</v>
+        <v>12.642945165896602</v>
       </c>
       <c r="AP3">
-        <v>8.3263512704710809</v>
+        <v>8.3263512599547163</v>
       </c>
       <c r="AQ3">
-        <v>8.6861844599489206</v>
+        <v>8.686184479998504</v>
       </c>
       <c r="AR3">
-        <v>11.184612247679032</v>
+        <v>11.184612246915776</v>
       </c>
       <c r="AS3">
-        <v>10.090409029208828</v>
+        <v>10.090409016860013</v>
       </c>
       <c r="AT3">
-        <v>9.2107471640784873</v>
+        <v>9.2107471697363543</v>
       </c>
       <c r="AU3">
-        <v>12.055381151528337</v>
+        <v>12.055381139852489</v>
       </c>
       <c r="AV3">
-        <v>13.395659759521125</v>
+        <v>13.395659740862618</v>
       </c>
       <c r="AW3">
-        <v>11.423602056675167</v>
+        <v>11.423602024469037</v>
       </c>
       <c r="AX3">
-        <v>13.052280215772516</v>
+        <v>13.052280197461361</v>
       </c>
       <c r="AY3">
-        <v>33.183132089179161</v>
+        <v>33.183132076152887</v>
       </c>
     </row>
   </sheetData>
